--- a/docs/Data Model.xlsx
+++ b/docs/Data Model.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DE_Project_FEC\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sohail_DE_Project\fec_env\big-data-fec-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33A2C6A-D768-47E3-BAED-B1EB5AE9611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09701C1-4D73-4C58-B130-F5949078070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Candidate master" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="Candidate master" sheetId="1" r:id="rId2"/>
     <sheet name="Committee master" sheetId="4" r:id="rId3"/>
     <sheet name="PAC" sheetId="5" r:id="rId4"/>
     <sheet name="committee-to-committe trans" sheetId="6" r:id="rId5"/>
     <sheet name="Operating expenditures" sheetId="2" r:id="rId6"/>
     <sheet name="Candidate-committee linkage" sheetId="3" r:id="rId7"/>
+    <sheet name="Ind_expenditure" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="376">
   <si>
     <t>CAND_ID</t>
   </si>
@@ -1075,13 +1076,97 @@
   </si>
   <si>
     <t>The officially registered treasurer for the committee.(A treasurer is a person responsible for the financial operations of a government, business, or other organization.)</t>
+  </si>
+  <si>
+    <t>pac_summary</t>
+  </si>
+  <si>
+    <t>Indicates if the report being filed is new (N), an amendment (A) to a previous report or a termination (T) report.</t>
+  </si>
+  <si>
+    <t>Indicates the type of report filed List of report type codes</t>
+  </si>
+  <si>
+    <t>This code indicates the election for which the contribution was made. EYYYY (election plus election year)</t>
+  </si>
+  <si>
+    <t>P = Primary</t>
+  </si>
+  <si>
+    <t>G = General</t>
+  </si>
+  <si>
+    <t>O = Other</t>
+  </si>
+  <si>
+    <t>C = Convention</t>
+  </si>
+  <si>
+    <t>R = Runoff</t>
+  </si>
+  <si>
+    <t>S = Special</t>
+  </si>
+  <si>
+    <t>E = Recount</t>
+  </si>
+  <si>
+    <t>OO - office (01 - House, 02 - Senate, 03 - FEC Paper, 90-99- FEC Electronic)</t>
+  </si>
+  <si>
+    <t>Transaction types 10, 11, 15, 15C, 15E, 15I, 15T, 19, 22Y, 24I, 24T, 20Y and 21Y are included in the INDIV file. Beginning with 2016 transaction types 30, 30T, 31, 31T, 32, 32T, 40T, 40Y, 41T, 41Y, 42T and 42Y are included in the INDIV file. Beginning with 2020 transaction types 30E, 31E and 32E are also included in the INDIV file.</t>
+  </si>
+  <si>
+    <t>30T</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Abigail Adams</t>
+  </si>
+  <si>
+    <t>Braintree</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Self employed</t>
+  </si>
+  <si>
+    <t>Homemaker</t>
+  </si>
+  <si>
+    <t>C00100309</t>
+  </si>
+  <si>
+    <t>SA11A1A.8317</t>
+  </si>
+  <si>
+    <t>'X' indicates that the amount of the transaction is not incorporated into the total figure disclosed on the detailed summary page of the committee’s report. 'X' may also indicate that the amount was received as part of a partnership contribution, received and forwarded as an earmarked contribution, or that a transaction was previously reported. When using the bulk data file these memo items should be included in your analysis.</t>
+  </si>
+  <si>
+    <t>A description of the activity. Memo Text is available on itemized amounts on Schedules A and B. These transactions are included in the itemization total.</t>
+  </si>
+  <si>
+    <t>Reattributed from John Adams 10/5/18</t>
+  </si>
+  <si>
+    <t>Individual_contribution</t>
+  </si>
+  <si>
+    <t>column names</t>
+  </si>
+  <si>
+    <t>Table names</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,6 +1206,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1381,7 +1474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1435,6 +1528,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1447,22 +1544,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1472,8 +1568,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1755,11 +1857,580 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1863FE-BFF6-4EBD-A74F-6430C1E35070}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection sqref="A1:H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37"/>
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37"/>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37"/>
+      <c r="B7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
+      <c r="B8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37"/>
+      <c r="B9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37"/>
+      <c r="B10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="37"/>
+      <c r="B11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37"/>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37"/>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37"/>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37"/>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="37"/>
+      <c r="B17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37"/>
+      <c r="D18" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37"/>
+      <c r="D19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37"/>
+      <c r="B20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="37"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="37"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="37"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="17"/>
+      <c r="E25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="37"/>
+      <c r="C26" s="17"/>
+      <c r="E26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="37"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="37"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="4"/>
+      <c r="D30" s="17"/>
+      <c r="G30" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A3:A29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1841,38 +2512,38 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -1898,251 +2569,251 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="27">
         <v>5</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="27">
         <v>6</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="27">
         <v>7</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="27">
         <v>8</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="27">
         <v>9</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
@@ -2285,6 +2956,30 @@
     <row r="30" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
@@ -2297,30 +2992,6 @@
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" display="https://www.fec.gov/campaign-finance-data/party-code-descriptions/" xr:uid="{CC9EAEB7-699D-4A6A-8116-482F4112C45B}"/>
@@ -2329,376 +3000,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1863FE-BFF6-4EBD-A74F-6430C1E35070}">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="17"/>
-      <c r="D24" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="D25" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="C29" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D4A025-7F98-4BAD-A670-BF09DABC2463}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2908,82 +3215,82 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="27">
         <v>9</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -3032,160 +3339,160 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="27">
         <v>12</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="21" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="27">
         <v>13</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="D24" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
@@ -3234,6 +3541,12 @@
     <row r="32" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
     <mergeCell ref="G24:G29"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="B18:B23"/>
@@ -3246,12 +3559,6 @@
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="E24:E29"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F16" r:id="rId1" display="https://www.fec.gov/campaign-finance-data/committee-type-code-descriptions" xr:uid="{438FCFB4-68DD-4AE6-9E23-78CB4F5FF68E}"/>
@@ -3265,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9F24C5-7DCF-42A4-8C48-52677C899E90}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3881,7 +4188,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A42"/>
+      <selection sqref="A1:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4011,16 +4318,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -4029,275 +4336,275 @@
       <c r="F6" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="21">
         <v>2.0181017091234099E+17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="10" t="s">
         <v>314</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="10"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="27">
         <v>6</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="21" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="27">
         <v>7</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="24" t="s">
+      <c r="D22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="21" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
@@ -4604,6 +4911,11 @@
     <row r="43" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:A19"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="D6:D19"/>
+    <mergeCell ref="G6:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="B22:B28"/>
@@ -4616,11 +4928,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A6:A19"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C6:C19"/>
-    <mergeCell ref="D6:D19"/>
-    <mergeCell ref="G6:G19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" display="https://www.fec.gov/campaign-finance-data/report-type-code-descriptions" xr:uid="{2E1C9F2A-CBA5-4270-9096-C4EE22EC73C6}"/>
@@ -4634,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C64E23A-57AB-4689-AE57-5721E5F7040D}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A46"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4763,198 +5070,198 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>98</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="21">
         <v>2.0181017091234099E+17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="27">
         <v>6</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24" t="s">
+      <c r="D20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="21">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -5108,7 +5415,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="20" t="s">
         <v>138</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5263,93 +5570,93 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="27">
         <v>21</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="24" t="s">
+      <c r="D36" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>93</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="21" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G37" s="20"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G38" s="20"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G39" s="20"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="20"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="20"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="31"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
@@ -5444,6 +5751,12 @@
     <row r="47" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G6:G19"/>
+    <mergeCell ref="A6:A19"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="D6:D19"/>
+    <mergeCell ref="E6:E19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B36:B42"/>
@@ -5457,12 +5770,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G6:G19"/>
-    <mergeCell ref="A6:A19"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C6:C19"/>
-    <mergeCell ref="D6:D19"/>
-    <mergeCell ref="E6:E19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" display="https://www.fec.gov/campaign-finance-data/report-type-code-descriptions/" xr:uid="{9F8F4900-182F-4B64-B149-B774253B40E1}"/>
@@ -5477,7 +5784,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5630,82 +5937,82 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="27">
         <v>6</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
@@ -5745,4 +6052,843 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6B34D-7DE8-4EE0-AFB0-43E5E332489A}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.77734375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="27">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="27">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2.0181017091234499E+17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="26"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" s="27">
+        <v>6</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="27">
+        <v>7</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="5">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="5">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="5">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="5">
+        <v>11</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C40" s="5">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" s="5">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="5">
+        <v>14</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6">
+        <v>10132018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="5">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C44" s="5">
+        <v>16</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="5">
+        <v>17</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C46" s="5">
+        <v>18</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1197695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="5">
+        <v>19</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="5">
+        <v>20</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="12">
+        <v>21</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" s="34"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A13:A26"/>
+    <mergeCell ref="B13:B26"/>
+    <mergeCell ref="C13:C26"/>
+    <mergeCell ref="D13:D26"/>
+    <mergeCell ref="E13:E26"/>
+    <mergeCell ref="G13:G26"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="G5:G12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://www.fec.gov/campaign-finance-data/report-type-code-descriptions" xr:uid="{CEA07171-DE26-47DD-9868-7A100EFEFF9F}"/>
+    <hyperlink ref="F28" r:id="rId2" display="https://www.fec.gov/campaign-finance-data/transaction-type-code-descriptions" xr:uid="{91E27DAB-C79C-4966-8ABE-04DB80971AFA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>